--- a/개별플젝1-ACC/테스트.xlsx
+++ b/개별플젝1-ACC/테스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\1주차-개별플젝1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdle\OneDrive\바탕 화면\SW-camp-Project\개별플젝1-ACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52910DB9-B589-4E21-B33C-0673C22531EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D0CD4F-E8BF-4250-9B56-F8F9EEE5E645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{282517C3-91D1-424E-9011-ABFBAEA3DBCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{282517C3-91D1-424E-9011-ABFBAEA3DBCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,23 +124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장애물 50cm 이내일 경우 가변저항의 조작으로 인한 모터동작 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파란 LED 동작 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sw1누를 시 ACC 모드 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물이 10cm안에서 밖으로 빠져나올 경우 모터가속 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물이 50cm안에서 밖으로 빠져나올 경우 모터가속 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,6 +190,44 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 50cm 이내일 경우
+가변저항의 조작으로 인한 모터동작 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물이 10cm안에서 
+밖으로 빠져나올 경우 모터가속 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물이 50cm안에서
+밖으로 빠져나올 경우 모터가속 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_test_12</t>
+  </si>
+  <si>
+    <t>ACC_test_13</t>
+  </si>
+  <si>
+    <t>장애물 거리에 따른 부저 소리 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝기에 따른 LED 밝기 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초음파센서 display의 값이 50이하일 경우 부저 scope가 1초 주기인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.조도센서 display에서 값이 500이하일 경우 RGB_LED가 켜지는지 확인
+2.조도센서 display에서 값이 500초과일 경우 RGB_LED가 꺼지는지 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,21 +598,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0FDCD6-F3BB-4C97-8B3E-2F53BB4591D0}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="116.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,12 +634,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -620,18 +648,18 @@
         <v>45321</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -640,13 +668,13 @@
         <v>45322</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -660,13 +688,13 @@
         <v>45321</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -680,13 +708,13 @@
         <v>45321</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -700,13 +728,13 @@
         <v>45321</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -720,18 +748,18 @@
         <v>45321</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -740,13 +768,13 @@
         <v>45321</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -763,15 +791,15 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -780,18 +808,18 @@
         <v>45321</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -800,18 +828,18 @@
         <v>45321</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -820,15 +848,40 @@
         <v>45321</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
